--- a/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
+++ b/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_14_Forecasting_Cash_Flows_Investment_Analysis\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770ED04-F179-468D-9CF7-7D5BD5440EB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D2D66-526D-4DA8-BCE9-A6A2A77F09B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="180" windowWidth="25035" windowHeight="16905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual P&amp;L" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -99,25 +105,26 @@
     <t>Net Present Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Assumptions: </t>
-  </si>
-  <si>
-    <t>Monthly Churn for Members:</t>
-  </si>
-  <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>ASSUMPTIONS</t>
+  </si>
+  <si>
+    <t>Monthly Churn for Members</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,19 +162,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -794,13 +788,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -810,7 +801,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="422" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -818,12 +808,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,34 +827,40 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="7" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="13" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="11" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="12" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="12" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,1003 +1630,947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="13" width="13.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="12" width="13.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12">
+        <v>7</v>
+      </c>
+      <c r="J4" s="11">
+        <v>8</v>
+      </c>
+      <c r="K4" s="12">
+        <v>9</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="14">
+        <v>43465</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43830</v>
+      </c>
+      <c r="D5" s="14">
+        <v>44196</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44561</v>
+      </c>
+      <c r="F5" s="15">
+        <v>44926</v>
+      </c>
+      <c r="G5" s="14">
+        <v>45291</v>
+      </c>
+      <c r="H5" s="15">
+        <v>45657</v>
+      </c>
+      <c r="I5" s="14">
+        <v>46022</v>
+      </c>
+      <c r="J5" s="15">
+        <v>46387</v>
+      </c>
+      <c r="K5" s="14">
+        <v>46752</v>
+      </c>
+      <c r="L5" s="13">
+        <v>47118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="21">
+        <v>85000</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>68200</v>
+      </c>
+      <c r="D7" s="19">
+        <v>189915</v>
+      </c>
+      <c r="E7" s="19">
+        <v>337980</v>
+      </c>
+      <c r="F7" s="19">
+        <v>509925</v>
+      </c>
+      <c r="G7" s="19">
+        <v>707000</v>
+      </c>
+      <c r="H7" s="19">
+        <v>928500</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1246100</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1609300</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2018100</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2472500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
+        <v>60000</v>
+      </c>
+      <c r="D9" s="17">
+        <v>66000</v>
+      </c>
+      <c r="E9" s="17">
+        <v>72600.000000000015</v>
+      </c>
+      <c r="F9" s="17">
+        <v>79860.000000000015</v>
+      </c>
+      <c r="G9" s="17">
+        <v>87846.000000000015</v>
+      </c>
+      <c r="H9" s="18">
+        <v>96630.600000000049</v>
+      </c>
+      <c r="I9" s="18">
+        <v>106293.66000000008</v>
+      </c>
+      <c r="J9" s="18">
+        <v>116923.02600000006</v>
+      </c>
+      <c r="K9" s="18">
+        <v>128615.32860000008</v>
+      </c>
+      <c r="L9" s="18">
+        <v>141476.86146000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18">
+        <v>49999.999999999993</v>
+      </c>
+      <c r="D10" s="18">
+        <v>55000.000000000022</v>
+      </c>
+      <c r="E10" s="18">
+        <v>60500.000000000029</v>
+      </c>
+      <c r="F10" s="18">
+        <v>66550.000000000015</v>
+      </c>
+      <c r="G10" s="18">
+        <v>73205.000000000044</v>
+      </c>
+      <c r="H10" s="18">
+        <v>80525.500000000029</v>
+      </c>
+      <c r="I10" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J10" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K10" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L10" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18">
+        <v>49999.999999999993</v>
+      </c>
+      <c r="D11" s="18">
+        <v>55000.000000000022</v>
+      </c>
+      <c r="E11" s="18">
+        <v>60500.000000000029</v>
+      </c>
+      <c r="F11" s="18">
+        <v>66550.000000000015</v>
+      </c>
+      <c r="G11" s="18">
+        <v>73205.000000000044</v>
+      </c>
+      <c r="H11" s="18">
+        <v>80525.500000000029</v>
+      </c>
+      <c r="I11" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J11" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K11" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L11" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18">
+        <v>49999.999999999993</v>
+      </c>
+      <c r="D12" s="18">
+        <v>55000.000000000022</v>
+      </c>
+      <c r="E12" s="18">
+        <v>60500.000000000029</v>
+      </c>
+      <c r="F12" s="18">
+        <v>66550.000000000015</v>
+      </c>
+      <c r="G12" s="18">
+        <v>73205.000000000044</v>
+      </c>
+      <c r="H12" s="18">
+        <v>80525.500000000029</v>
+      </c>
+      <c r="I12" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J12" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K12" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L12" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>50416.666666666686</v>
+      </c>
+      <c r="F13" s="18">
+        <v>66550.000000000015</v>
+      </c>
+      <c r="G13" s="18">
+        <v>73205.000000000044</v>
+      </c>
+      <c r="H13" s="18">
+        <v>80525.500000000029</v>
+      </c>
+      <c r="I13" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J13" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K13" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L13" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>55458.33333333335</v>
+      </c>
+      <c r="G14" s="18">
+        <v>73205.000000000044</v>
+      </c>
+      <c r="H14" s="18">
+        <v>80525.500000000029</v>
+      </c>
+      <c r="I14" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J14" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K14" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L14" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>54903.750000000029</v>
+      </c>
+      <c r="H15" s="18">
+        <v>80525.500000000029</v>
+      </c>
+      <c r="I15" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J15" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K15" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L15" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>53683.666666666686</v>
+      </c>
+      <c r="I16" s="18">
+        <v>88578.050000000032</v>
+      </c>
+      <c r="J16" s="18">
+        <v>97435.855000000054</v>
+      </c>
+      <c r="K16" s="18">
+        <v>107179.44050000004</v>
+      </c>
+      <c r="L16" s="18">
+        <v>117897.38455000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
+        <v>12000</v>
+      </c>
+      <c r="D17" s="18">
+        <v>13200</v>
+      </c>
+      <c r="E17" s="18">
+        <v>16976</v>
+      </c>
+      <c r="F17" s="18">
+        <v>25496.25</v>
+      </c>
+      <c r="G17" s="18">
+        <v>35350</v>
+      </c>
+      <c r="H17" s="18">
+        <v>46425</v>
+      </c>
+      <c r="I17" s="18">
+        <v>62305</v>
+      </c>
+      <c r="J17" s="18">
+        <v>80465</v>
+      </c>
+      <c r="K17" s="18">
+        <v>100905</v>
+      </c>
+      <c r="L17" s="18">
+        <v>123625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18">
+        <v>36000</v>
+      </c>
+      <c r="D18" s="18">
+        <v>39600.000000000007</v>
+      </c>
+      <c r="E18" s="18">
+        <v>43560.000000000007</v>
+      </c>
+      <c r="F18" s="18">
+        <v>47916.000000000007</v>
+      </c>
+      <c r="G18" s="18">
+        <v>52707.600000000028</v>
+      </c>
+      <c r="H18" s="18">
+        <v>57978.360000000015</v>
+      </c>
+      <c r="I18" s="18">
+        <v>63776.196000000047</v>
+      </c>
+      <c r="J18" s="18">
+        <v>70153.815600000045</v>
+      </c>
+      <c r="K18" s="18">
+        <v>77169.197160000054</v>
+      </c>
+      <c r="L18" s="18">
+        <v>84886.116876000073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
+        <v>12000</v>
+      </c>
+      <c r="D19" s="18">
+        <v>13200</v>
+      </c>
+      <c r="E19" s="18">
+        <v>14520</v>
+      </c>
+      <c r="F19" s="18">
+        <v>15972</v>
+      </c>
+      <c r="G19" s="18">
+        <v>17569.2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>19326.120000000003</v>
+      </c>
+      <c r="I19" s="18">
+        <v>21258.732000000004</v>
+      </c>
+      <c r="J19" s="18">
+        <v>23384.605200000009</v>
+      </c>
+      <c r="K19" s="18">
+        <v>25723.06572000001</v>
+      </c>
+      <c r="L19" s="18">
+        <v>28295.372292000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
-        <v>5</v>
-      </c>
-      <c r="I5" s="18">
-        <v>6</v>
-      </c>
-      <c r="J5" s="19">
-        <v>7</v>
-      </c>
-      <c r="K5" s="18">
-        <v>8</v>
-      </c>
-      <c r="L5" s="19">
-        <v>9</v>
-      </c>
-      <c r="M5" s="19">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="21">
-        <v>43465</v>
-      </c>
-      <c r="D6" s="21">
-        <v>43830</v>
-      </c>
-      <c r="E6" s="21">
-        <v>44196</v>
-      </c>
-      <c r="F6" s="22">
-        <v>44561</v>
-      </c>
-      <c r="G6" s="22">
-        <v>44926</v>
-      </c>
-      <c r="H6" s="21">
-        <v>45291</v>
-      </c>
-      <c r="I6" s="22">
-        <v>45657</v>
-      </c>
-      <c r="J6" s="21">
-        <v>46022</v>
-      </c>
-      <c r="K6" s="22">
-        <v>46387</v>
-      </c>
-      <c r="L6" s="21">
-        <v>46752</v>
-      </c>
-      <c r="M6" s="20">
-        <v>47118</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="28">
-        <v>85000</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26">
-        <v>68200</v>
-      </c>
-      <c r="E8" s="26">
-        <v>189915</v>
-      </c>
-      <c r="F8" s="26">
-        <v>337980</v>
-      </c>
-      <c r="G8" s="26">
-        <v>509925</v>
-      </c>
-      <c r="H8" s="26">
-        <v>707000</v>
-      </c>
-      <c r="I8" s="26">
-        <v>928500</v>
-      </c>
-      <c r="J8" s="26">
-        <v>1246100</v>
-      </c>
-      <c r="K8" s="26">
-        <v>1609300</v>
-      </c>
-      <c r="L8" s="26">
-        <v>2018100</v>
-      </c>
-      <c r="M8" s="26">
-        <v>2472500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24">
-        <v>60000</v>
-      </c>
-      <c r="E10" s="24">
-        <v>66000</v>
-      </c>
-      <c r="F10" s="24">
-        <v>72600.000000000015</v>
-      </c>
-      <c r="G10" s="24">
-        <v>79860.000000000015</v>
-      </c>
-      <c r="H10" s="24">
-        <v>87846.000000000015</v>
-      </c>
-      <c r="I10" s="25">
-        <v>96630.600000000049</v>
-      </c>
-      <c r="J10" s="25">
-        <v>106293.66000000008</v>
-      </c>
-      <c r="K10" s="25">
-        <v>116923.02600000006</v>
-      </c>
-      <c r="L10" s="25">
-        <v>128615.32860000008</v>
-      </c>
-      <c r="M10" s="25">
-        <v>141476.86146000013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25">
-        <v>49999.999999999993</v>
-      </c>
-      <c r="E11" s="25">
-        <v>55000.000000000022</v>
-      </c>
-      <c r="F11" s="25">
-        <v>60500.000000000029</v>
-      </c>
-      <c r="G11" s="25">
-        <v>66550.000000000015</v>
-      </c>
-      <c r="H11" s="25">
-        <v>73205.000000000044</v>
-      </c>
-      <c r="I11" s="25">
-        <v>80525.500000000029</v>
-      </c>
-      <c r="J11" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K11" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L11" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M11" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25">
-        <v>49999.999999999993</v>
-      </c>
-      <c r="E12" s="25">
-        <v>55000.000000000022</v>
-      </c>
-      <c r="F12" s="25">
-        <v>60500.000000000029</v>
-      </c>
-      <c r="G12" s="25">
-        <v>66550.000000000015</v>
-      </c>
-      <c r="H12" s="25">
-        <v>73205.000000000044</v>
-      </c>
-      <c r="I12" s="25">
-        <v>80525.500000000029</v>
-      </c>
-      <c r="J12" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K12" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L12" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M12" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25">
-        <v>49999.999999999993</v>
-      </c>
-      <c r="E13" s="25">
-        <v>55000.000000000022</v>
-      </c>
-      <c r="F13" s="25">
-        <v>60500.000000000029</v>
-      </c>
-      <c r="G13" s="25">
-        <v>66550.000000000015</v>
-      </c>
-      <c r="H13" s="25">
-        <v>73205.000000000044</v>
-      </c>
-      <c r="I13" s="25">
-        <v>80525.500000000029</v>
-      </c>
-      <c r="J13" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K13" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L13" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M13" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18">
+        <v>12000</v>
+      </c>
+      <c r="D20" s="18">
+        <v>13200</v>
+      </c>
+      <c r="E20" s="18">
+        <v>14520</v>
+      </c>
+      <c r="F20" s="18">
+        <v>15972</v>
+      </c>
+      <c r="G20" s="18">
+        <v>17569.2</v>
+      </c>
+      <c r="H20" s="18">
+        <v>19326.120000000003</v>
+      </c>
+      <c r="I20" s="18">
+        <v>21258.732000000004</v>
+      </c>
+      <c r="J20" s="18">
+        <v>23384.605200000009</v>
+      </c>
+      <c r="K20" s="18">
+        <v>25723.06572000001</v>
+      </c>
+      <c r="L20" s="18">
+        <v>28295.372292000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1320.0000000000002</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1452.0000000000002</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1597.200000000001</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1756.920000000001</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1932.6120000000017</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2125.8732000000014</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2338.4605200000019</v>
+      </c>
+      <c r="K21" s="18">
+        <v>2572.3065720000018</v>
+      </c>
+      <c r="L21" s="18">
+        <v>2829.5372292000029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22">
+        <v>283200</v>
+      </c>
+      <c r="D23" s="22">
+        <v>311520.00000000012</v>
+      </c>
+      <c r="E23" s="22">
+        <v>395544.6666666668</v>
+      </c>
+      <c r="F23" s="22">
+        <v>508471.78333333344</v>
+      </c>
+      <c r="G23" s="22">
+        <v>633727.67000000027</v>
+      </c>
+      <c r="H23" s="22">
+        <v>778455.47866666678</v>
+      </c>
+      <c r="I23" s="22">
+        <v>897064.54320000031</v>
+      </c>
+      <c r="J23" s="22">
+        <v>998700.49752000056</v>
+      </c>
+      <c r="K23" s="22">
+        <v>1110964.0472720005</v>
+      </c>
+      <c r="L23" s="22">
+        <v>1234689.951999201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18">
+        <v>-215000</v>
+      </c>
+      <c r="D24" s="18">
+        <v>-121605.00000000012</v>
+      </c>
+      <c r="E24" s="18">
+        <v>-57564.666666666802</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1453.216666666558</v>
+      </c>
+      <c r="G24" s="18">
+        <v>73272.329999999725</v>
+      </c>
+      <c r="H24" s="18">
+        <v>150044.52133333322</v>
+      </c>
+      <c r="I24" s="18">
+        <v>349035.45679999969</v>
+      </c>
+      <c r="J24" s="18">
+        <v>610599.50247999944</v>
+      </c>
+      <c r="K24" s="18">
+        <v>907135.95272799954</v>
+      </c>
+      <c r="L24" s="18">
+        <v>1237810.048000799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="I26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="L26" s="18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="25">
+      <c r="D28" s="18">
         <v>0</v>
       </c>
-      <c r="F14" s="25">
-        <v>50416.666666666686</v>
-      </c>
-      <c r="G14" s="25">
-        <v>66550.000000000015</v>
-      </c>
-      <c r="H14" s="25">
-        <v>73205.000000000044</v>
-      </c>
-      <c r="I14" s="25">
-        <v>80525.500000000029</v>
-      </c>
-      <c r="J14" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K14" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L14" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M14" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25">
+      <c r="E28" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="25">
+      <c r="F28" s="18">
         <v>0</v>
       </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <v>55458.33333333335</v>
-      </c>
-      <c r="H15" s="25">
-        <v>73205.000000000044</v>
-      </c>
-      <c r="I15" s="25">
-        <v>80525.500000000029</v>
-      </c>
-      <c r="J15" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K15" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L15" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M15" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>54903.750000000029</v>
-      </c>
-      <c r="I16" s="25">
-        <v>80525.500000000029</v>
-      </c>
-      <c r="J16" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K16" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L16" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M16" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
-        <v>53683.666666666686</v>
-      </c>
-      <c r="J17" s="25">
-        <v>88578.050000000032</v>
-      </c>
-      <c r="K17" s="25">
-        <v>97435.855000000054</v>
-      </c>
-      <c r="L17" s="25">
-        <v>107179.44050000004</v>
-      </c>
-      <c r="M17" s="25">
-        <v>117897.38455000012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25">
-        <v>12000</v>
-      </c>
-      <c r="E18" s="25">
-        <v>13200</v>
-      </c>
-      <c r="F18" s="25">
-        <v>16976</v>
-      </c>
-      <c r="G18" s="25">
-        <v>25496.25</v>
-      </c>
-      <c r="H18" s="25">
-        <v>35350</v>
-      </c>
-      <c r="I18" s="25">
-        <v>46425</v>
-      </c>
-      <c r="J18" s="25">
-        <v>62305</v>
-      </c>
-      <c r="K18" s="25">
-        <v>80465</v>
-      </c>
-      <c r="L18" s="25">
-        <v>100905</v>
-      </c>
-      <c r="M18" s="25">
-        <v>123625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25">
-        <v>36000</v>
-      </c>
-      <c r="E19" s="25">
-        <v>39600.000000000007</v>
-      </c>
-      <c r="F19" s="25">
-        <v>43560.000000000007</v>
-      </c>
-      <c r="G19" s="25">
-        <v>47916.000000000007</v>
-      </c>
-      <c r="H19" s="25">
-        <v>52707.600000000028</v>
-      </c>
-      <c r="I19" s="25">
-        <v>57978.360000000015</v>
-      </c>
-      <c r="J19" s="25">
-        <v>63776.196000000047</v>
-      </c>
-      <c r="K19" s="25">
-        <v>70153.815600000045</v>
-      </c>
-      <c r="L19" s="25">
-        <v>77169.197160000054</v>
-      </c>
-      <c r="M19" s="25">
-        <v>84886.116876000073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25">
-        <v>12000</v>
-      </c>
-      <c r="E20" s="25">
-        <v>13200</v>
-      </c>
-      <c r="F20" s="25">
-        <v>14520</v>
-      </c>
-      <c r="G20" s="25">
-        <v>15972</v>
-      </c>
-      <c r="H20" s="25">
-        <v>17569.2</v>
-      </c>
-      <c r="I20" s="25">
-        <v>19326.120000000003</v>
-      </c>
-      <c r="J20" s="25">
-        <v>21258.732000000004</v>
-      </c>
-      <c r="K20" s="25">
-        <v>23384.605200000009</v>
-      </c>
-      <c r="L20" s="25">
-        <v>25723.06572000001</v>
-      </c>
-      <c r="M20" s="25">
-        <v>28295.372292000011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25">
-        <v>12000</v>
-      </c>
-      <c r="E21" s="25">
-        <v>13200</v>
-      </c>
-      <c r="F21" s="25">
-        <v>14520</v>
-      </c>
-      <c r="G21" s="25">
-        <v>15972</v>
-      </c>
-      <c r="H21" s="25">
-        <v>17569.2</v>
-      </c>
-      <c r="I21" s="25">
-        <v>19326.120000000003</v>
-      </c>
-      <c r="J21" s="25">
-        <v>21258.732000000004</v>
-      </c>
-      <c r="K21" s="25">
-        <v>23384.605200000009</v>
-      </c>
-      <c r="L21" s="25">
-        <v>25723.06572000001</v>
-      </c>
-      <c r="M21" s="25">
-        <v>28295.372292000011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26">
+      <c r="G28" s="18">
+        <v>20481.698999999917</v>
+      </c>
+      <c r="H28" s="18">
+        <v>43513.356399999968</v>
+      </c>
+      <c r="I28" s="18">
+        <v>103210.6370399999</v>
+      </c>
+      <c r="J28" s="18">
+        <v>181679.85074399982</v>
+      </c>
+      <c r="K28" s="18">
+        <v>270640.78581839986</v>
+      </c>
+      <c r="L28" s="18">
+        <v>369843.01440023968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18">
         <v>1200</v>
       </c>
-      <c r="E22" s="26">
-        <v>1320.0000000000002</v>
-      </c>
-      <c r="F22" s="26">
-        <v>1452.0000000000002</v>
-      </c>
-      <c r="G22" s="26">
-        <v>1597.200000000001</v>
-      </c>
-      <c r="H22" s="26">
-        <v>1756.920000000001</v>
-      </c>
-      <c r="I22" s="25">
-        <v>1932.6120000000017</v>
-      </c>
-      <c r="J22" s="25">
-        <v>2125.8732000000014</v>
-      </c>
-      <c r="K22" s="25">
-        <v>2338.4605200000019</v>
-      </c>
-      <c r="L22" s="25">
-        <v>2572.3065720000018</v>
-      </c>
-      <c r="M22" s="25">
-        <v>2829.5372292000029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32">
-        <v>283200</v>
-      </c>
-      <c r="E24" s="32">
-        <v>311520.00000000012</v>
-      </c>
-      <c r="F24" s="32">
-        <v>395544.6666666668</v>
-      </c>
-      <c r="G24" s="32">
-        <v>508471.78333333344</v>
-      </c>
-      <c r="H24" s="32">
-        <v>633727.67000000027</v>
-      </c>
-      <c r="I24" s="32">
-        <v>778455.47866666678</v>
-      </c>
-      <c r="J24" s="32">
-        <v>897064.54320000031</v>
-      </c>
-      <c r="K24" s="32">
-        <v>998700.49752000056</v>
-      </c>
-      <c r="L24" s="32">
-        <v>1110964.0472720005</v>
-      </c>
-      <c r="M24" s="32">
-        <v>1234689.951999201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25">
-        <v>-215000</v>
-      </c>
-      <c r="E25" s="25">
-        <v>-121605.00000000012</v>
-      </c>
-      <c r="F25" s="25">
-        <v>-57564.666666666802</v>
-      </c>
-      <c r="G25" s="25">
-        <v>1453.216666666558</v>
-      </c>
-      <c r="H25" s="25">
-        <v>73272.329999999725</v>
-      </c>
-      <c r="I25" s="25">
-        <v>150044.52133333322</v>
-      </c>
-      <c r="J25" s="25">
-        <v>349035.45679999969</v>
-      </c>
-      <c r="K25" s="25">
-        <v>610599.50247999944</v>
-      </c>
-      <c r="L25" s="25">
-        <v>907135.95272799954</v>
-      </c>
-      <c r="M25" s="25">
-        <v>1237810.048000799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="F27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="H27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="I27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="J27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="K27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="L27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="M27" s="25">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25">
-        <v>0</v>
-      </c>
-      <c r="E29" s="25">
-        <v>0</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
-      <c r="H29" s="25">
-        <v>20481.698999999917</v>
-      </c>
-      <c r="I29" s="25">
-        <v>43513.356399999968</v>
-      </c>
-      <c r="J29" s="25">
-        <v>103210.6370399999</v>
-      </c>
-      <c r="K29" s="25">
-        <v>181679.85074399982</v>
-      </c>
-      <c r="L29" s="25">
-        <v>270640.78581839986</v>
-      </c>
-      <c r="M29" s="25">
-        <v>369843.01440023968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25">
+      <c r="D30" s="18">
         <v>1200</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E30" s="18">
         <v>1200</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F30" s="18">
         <v>1200</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G30" s="18">
         <v>1200</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H30" s="18">
         <v>1200</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I30" s="18">
         <v>1200</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J30" s="18">
         <v>1200</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K30" s="18">
         <v>1200</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L30" s="18">
         <v>1200</v>
       </c>
-      <c r="M31" s="25">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="27">
+      <c r="B32" s="20">
         <v>-85000</v>
       </c>
-      <c r="D33" s="27">
+      <c r="C32" s="20">
         <v>-216200</v>
       </c>
-      <c r="E33" s="27">
+      <c r="D32" s="20">
         <v>-122805.00000000012</v>
       </c>
-      <c r="F33" s="27">
+      <c r="E32" s="20">
         <v>-58764.666666666802</v>
       </c>
-      <c r="G33" s="27">
+      <c r="F32" s="20">
         <v>253.21666666655801</v>
       </c>
-      <c r="H33" s="27">
+      <c r="G32" s="20">
         <v>51590.630999999805</v>
       </c>
-      <c r="I33" s="27">
+      <c r="H32" s="20">
         <v>105331.16493333326</v>
       </c>
-      <c r="J33" s="27">
+      <c r="I32" s="20">
         <v>244624.81975999981</v>
       </c>
-      <c r="K33" s="27">
+      <c r="J32" s="20">
         <v>427719.65173599962</v>
       </c>
-      <c r="L33" s="27">
+      <c r="K32" s="20">
         <v>635295.16690959968</v>
       </c>
-      <c r="M33" s="27">
+      <c r="L32" s="20">
         <v>866767.03360055934</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1" t="s">
+    <row r="33" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="B34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="C6:L6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
+++ b/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_14_Forecasting_Cash_Flows_Investment_Analysis\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D2D66-526D-4DA8-BCE9-A6A2A77F09B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E249C46-F4BF-4605-BCBC-021766D637DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="180" windowWidth="25035" windowHeight="16905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual P&amp;L" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -118,11 +118,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -818,15 +819,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,6 +844,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,7 +1640,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="12" width="13.5" style="6" customWidth="1"/>
+    <col min="2" max="12" width="12.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1659,7 +1660,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1699,37 +1700,37 @@
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="22">
         <v>43465</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="22">
         <v>43830</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="22">
         <v>44196</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="23">
         <v>44561</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="23">
         <v>44926</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="22">
         <v>45291</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="23">
         <v>45657</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="22">
         <v>46022</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="23">
         <v>46387</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="22">
         <v>46752</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="24">
         <v>47118</v>
       </c>
     </row>
@@ -1737,7 +1738,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>85000</v>
       </c>
       <c r="C6" s="25"/>
@@ -1755,35 +1756,35 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16">
         <v>68200</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>189915</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>337980</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>509925</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <v>707000</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <v>928500</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>1246100</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>1609300</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <v>2018100</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="16">
         <v>2472500</v>
       </c>
     </row>
@@ -1807,35 +1808,35 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14">
         <v>60000</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>66000</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>72600.000000000015</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>79860.000000000015</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>87846.000000000015</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <v>96630.600000000049</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>106293.66000000008</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <v>116923.02600000006</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>128615.32860000008</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <v>141476.86146000013</v>
       </c>
     </row>
@@ -1843,35 +1844,35 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
         <v>49999.999999999993</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>55000.000000000022</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>60500.000000000029</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>66550.000000000015</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>73205.000000000044</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>80525.500000000029</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -1879,35 +1880,35 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
         <v>49999.999999999993</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>55000.000000000022</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>60500.000000000029</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <v>66550.000000000015</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <v>73205.000000000044</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>80525.500000000029</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -1915,35 +1916,35 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15">
         <v>49999.999999999993</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>55000.000000000022</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>60500.000000000029</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <v>66550.000000000015</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>73205.000000000044</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>80525.500000000029</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -1951,35 +1952,35 @@
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>50416.666666666686</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>66550.000000000015</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <v>73205.000000000044</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <v>80525.500000000029</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -1987,35 +1988,35 @@
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15">
         <v>0</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>55458.33333333335</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>73205.000000000044</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>80525.500000000029</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -2023,35 +2024,35 @@
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15">
         <v>0</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>0</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>0</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <v>54903.750000000029</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <v>80525.500000000029</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -2059,35 +2060,35 @@
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15">
         <v>0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>0</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>53683.666666666686</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>88578.050000000032</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>97435.855000000054</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>107179.44050000004</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <v>117897.38455000012</v>
       </c>
     </row>
@@ -2095,35 +2096,35 @@
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15">
         <v>12000</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>13200</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>16976</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>25496.25</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>35350</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>46425</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>62305</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>80465</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>100905</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="15">
         <v>123625</v>
       </c>
     </row>
@@ -2131,35 +2132,35 @@
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
         <v>36000</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>39600.000000000007</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>43560.000000000007</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>47916.000000000007</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <v>52707.600000000028</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>57978.360000000015</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <v>63776.196000000047</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="15">
         <v>70153.815600000045</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <v>77169.197160000054</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <v>84886.116876000073</v>
       </c>
     </row>
@@ -2167,35 +2168,35 @@
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
         <v>12000</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>13200</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="15">
         <v>14520</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <v>15972</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="15">
         <v>17569.2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>19326.120000000003</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>21258.732000000004</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="15">
         <v>23384.605200000009</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>25723.06572000001</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <v>28295.372292000011</v>
       </c>
     </row>
@@ -2203,35 +2204,35 @@
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
         <v>12000</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>13200</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>14520</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="15">
         <v>15972</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="15">
         <v>17569.2</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="15">
         <v>19326.120000000003</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="15">
         <v>21258.732000000004</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="15">
         <v>23384.605200000009</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="15">
         <v>25723.06572000001</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <v>28295.372292000011</v>
       </c>
     </row>
@@ -2239,35 +2240,35 @@
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16">
         <v>1200</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>1320.0000000000002</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>1452.0000000000002</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <v>1597.200000000001</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <v>1756.920000000001</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="15">
         <v>1932.6120000000017</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="15">
         <v>2125.8732000000014</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="15">
         <v>2338.4605200000019</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="15">
         <v>2572.3065720000018</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <v>2829.5372292000029</v>
       </c>
     </row>
@@ -2289,35 +2290,35 @@
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19">
         <v>283200</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>311520.00000000012</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>395544.6666666668</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="19">
         <v>508471.78333333344</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="19">
         <v>633727.67000000027</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="19">
         <v>778455.47866666678</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>897064.54320000031</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="19">
         <v>998700.49752000056</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="19">
         <v>1110964.0472720005</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="19">
         <v>1234689.951999201</v>
       </c>
     </row>
@@ -2325,237 +2326,237 @@
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15">
         <v>-215000</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>-121605.00000000012</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>-57564.666666666802</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="15">
         <v>1453.216666666558</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="15">
         <v>73272.329999999725</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="15">
         <v>150044.52133333322</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="15">
         <v>349035.45679999969</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="15">
         <v>610599.50247999944</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="15">
         <v>907135.95272799954</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <v>1237810.048000799</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
         <v>5000</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>5000</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>5000</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="15">
         <v>5000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="15">
         <v>5000</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="15">
         <v>5000</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="15">
         <v>5000</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="15">
         <v>5000</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="15">
         <v>5000</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="15">
         <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="15">
         <v>0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="15">
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="15">
         <v>20481.698999999917</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <v>43513.356399999968</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="15">
         <v>103210.6370399999</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="15">
         <v>181679.85074399982</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="15">
         <v>270640.78581839986</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="15">
         <v>369843.01440023968</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15">
         <v>1200</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>1200</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="15">
         <v>1200</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="15">
         <v>1200</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="15">
         <v>1200</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="15">
         <v>1200</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="15">
         <v>1200</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="15">
         <v>1200</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="15">
         <v>1200</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="15">
         <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="17">
         <v>-85000</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="17">
         <v>-216200</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>-122805.00000000012</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="17">
         <v>-58764.666666666802</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <v>253.21666666655801</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="17">
         <v>51590.630999999805</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="17">
         <v>105331.16493333326</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="17">
         <v>244624.81975999981</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="17">
         <v>427719.65173599962</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="17">
         <v>635295.16690959968</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="17">
         <v>866767.03360055934</v>
       </c>
     </row>
@@ -2566,7 +2567,7 @@
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
+++ b/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
@@ -8,21 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_14_Forecasting_Cash_Flows_Investment_Analysis\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E249C46-F4BF-4605-BCBC-021766D637DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90453C5-96CD-4BAA-A527-49D2545D42DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="180" windowWidth="25035" windowHeight="16905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual P&amp;L" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -125,9 +119,16 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -165,14 +166,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11.5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,484 +382,449 @@
   </borders>
   <cellStyleXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="7" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="13" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,13 +836,47 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="9" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="12" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="6" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="7" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="13" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="8" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="2" borderId="1" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="422" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="10" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="12" xfId="422" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,10 +1652,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="12" width="12.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="13" customWidth="1"/>
+    <col min="2" max="12" width="11.625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,911 +1668,931 @@
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>0.05</v>
       </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <v>7</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="6">
         <v>8</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>9</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="9">
         <v>43465</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="9">
         <v>43830</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="9">
         <v>44196</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="10">
         <v>44561</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="10">
         <v>44926</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="9">
         <v>45291</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="10">
         <v>45657</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="9">
         <v>46022</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="10">
         <v>46387</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="9">
         <v>46752</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="11">
         <v>47118</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>85000</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
         <v>68200</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>189915</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>337980</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>509925</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>707000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>928500</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>1246100</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>1609300</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>2018100</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>2472500</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
         <v>60000</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="18">
         <v>66000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="18">
         <v>72600.000000000015</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="18">
         <v>79860.000000000015</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="18">
         <v>87846.000000000015</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="19">
         <v>96630.600000000049</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="19">
         <v>106293.66000000008</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="19">
         <v>116923.02600000006</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="19">
         <v>128615.32860000008</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="19">
         <v>141476.86146000013</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
         <v>49999.999999999993</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="19">
         <v>55000.000000000022</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="19">
         <v>60500.000000000029</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="19">
         <v>66550.000000000015</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="19">
         <v>73205.000000000044</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="19">
         <v>80525.500000000029</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
         <v>49999.999999999993</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="19">
         <v>55000.000000000022</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="19">
         <v>60500.000000000029</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="19">
         <v>66550.000000000015</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="19">
         <v>73205.000000000044</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="19">
         <v>80525.500000000029</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
         <v>49999.999999999993</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="19">
         <v>55000.000000000022</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="19">
         <v>60500.000000000029</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="19">
         <v>66550.000000000015</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="19">
         <v>73205.000000000044</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="19">
         <v>80525.500000000029</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="19">
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="19">
         <v>50416.666666666686</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="19">
         <v>66550.000000000015</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="19">
         <v>73205.000000000044</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="19">
         <v>80525.500000000029</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19">
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="19">
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="19">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="19">
         <v>55458.33333333335</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="19">
         <v>73205.000000000044</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="19">
         <v>80525.500000000029</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19">
         <v>0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="19">
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="19">
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="19">
         <v>54903.750000000029</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="19">
         <v>80525.500000000029</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19">
         <v>0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="19">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="19">
         <v>0</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="19">
         <v>0</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="19">
         <v>53683.666666666686</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="19">
         <v>88578.050000000032</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="19">
         <v>97435.855000000054</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="19">
         <v>107179.44050000004</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="19">
         <v>117897.38455000012</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19">
         <v>12000</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="19">
         <v>13200</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="19">
         <v>16976</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="19">
         <v>25496.25</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="19">
         <v>35350</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="19">
         <v>46425</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="19">
         <v>62305</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="19">
         <v>80465</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="19">
         <v>100905</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="19">
         <v>123625</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19">
         <v>36000</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="19">
         <v>39600.000000000007</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="19">
         <v>43560.000000000007</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="19">
         <v>47916.000000000007</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="19">
         <v>52707.600000000028</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="19">
         <v>57978.360000000015</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="19">
         <v>63776.196000000047</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="19">
         <v>70153.815600000045</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="19">
         <v>77169.197160000054</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="19">
         <v>84886.116876000073</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
         <v>12000</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="19">
         <v>13200</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="19">
         <v>14520</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="19">
         <v>15972</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="19">
         <v>17569.2</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="19">
         <v>19326.120000000003</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="19">
         <v>21258.732000000004</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="19">
         <v>23384.605200000009</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="19">
         <v>25723.06572000001</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="19">
         <v>28295.372292000011</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
         <v>12000</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="19">
         <v>13200</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="19">
         <v>14520</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="19">
         <v>15972</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="19">
         <v>17569.2</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="19">
         <v>19326.120000000003</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="19">
         <v>21258.732000000004</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="19">
         <v>23384.605200000009</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="19">
         <v>25723.06572000001</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="19">
         <v>28295.372292000011</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15">
         <v>1200</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>1320.0000000000002</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>1452.0000000000002</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>1597.200000000001</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>1756.920000000001</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="19">
         <v>1932.6120000000017</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="19">
         <v>2125.8732000000014</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="19">
         <v>2338.4605200000019</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="19">
         <v>2572.3065720000018</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="19">
         <v>2829.5372292000029</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20">
         <v>283200</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <v>311520.00000000012</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="20">
         <v>395544.6666666668</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="20">
         <v>508471.78333333344</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="20">
         <v>633727.67000000027</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="20">
         <v>778455.47866666678</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="20">
         <v>897064.54320000031</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="20">
         <v>998700.49752000056</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="20">
         <v>1110964.0472720005</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="20">
         <v>1234689.951999201</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19">
         <v>-215000</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="19">
         <v>-121605.00000000012</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="19">
         <v>-57564.666666666802</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="19">
         <v>1453.216666666558</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="19">
         <v>73272.329999999725</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="19">
         <v>150044.52133333322</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="19">
         <v>349035.45679999969</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="19">
         <v>610599.50247999944</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="19">
         <v>907135.95272799954</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="19">
         <v>1237810.048000799</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19">
         <v>5000</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="19">
         <v>5000</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="19">
         <v>5000</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="19">
         <v>5000</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="19">
         <v>5000</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="19">
         <v>5000</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="19">
         <v>5000</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="19">
         <v>5000</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="19">
         <v>5000</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="19">
         <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19">
         <v>0</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="19">
         <v>0</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="19">
         <v>0</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="19">
         <v>0</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="19">
         <v>20481.698999999917</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="19">
         <v>43513.356399999968</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="19">
         <v>103210.6370399999</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="19">
         <v>181679.85074399982</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="19">
         <v>270640.78581839986</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="19">
         <v>369843.01440023968</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19">
         <v>1200</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="19">
         <v>1200</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="19">
         <v>1200</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="19">
         <v>1200</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="19">
         <v>1200</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="19">
         <v>1200</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="19">
         <v>1200</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="19">
         <v>1200</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="19">
         <v>1200</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="19">
         <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="22">
         <v>-85000</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="22">
         <v>-216200</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="22">
         <v>-122805.00000000012</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="22">
         <v>-58764.666666666802</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="22">
         <v>253.21666666655801</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="22">
         <v>51590.630999999805</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="22">
         <v>105331.16493333326</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="22">
         <v>244624.81975999981</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="22">
         <v>427719.65173599962</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="22">
         <v>635295.16690959968</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="22">
         <v>866767.03360055934</v>
       </c>
     </row>
@@ -2567,7 +2603,7 @@
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
+++ b/assets/public/Chapter_14_Forecasting_Cash_Flows_Investment_Analysis/documents/resources/06_Initial_V3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_14_Forecasting_Cash_Flows_Investment_Analysis\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90453C5-96CD-4BAA-A527-49D2545D42DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2546880-085D-4D3A-B892-DF455FFEF641}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual P&amp;L" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
